--- a/artfynd/A 38452-2022.xlsx
+++ b/artfynd/A 38452-2022.xlsx
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>643176.2466144778</v>
+        <v>643176</v>
       </c>
       <c r="R2" t="n">
-        <v>6571805.657813139</v>
+        <v>6571806</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -756,19 +756,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">

--- a/artfynd/A 38452-2022.xlsx
+++ b/artfynd/A 38452-2022.xlsx
@@ -683,7 +683,7 @@
         <v>111717476</v>
       </c>
       <c r="B2" t="n">
-        <v>89183</v>
+        <v>89317</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>

--- a/artfynd/A 38452-2022.xlsx
+++ b/artfynd/A 38452-2022.xlsx
@@ -683,7 +683,7 @@
         <v>111717476</v>
       </c>
       <c r="B2" t="n">
-        <v>89317</v>
+        <v>89331</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
